--- a/CalendarioCorsi.xlsx
+++ b/CalendarioCorsi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">Iterazioni e Grafici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lezione 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lezione 6</t>
   </si>
 </sst>
 </file>
@@ -70,11 +76,12 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -96,6 +103,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBF0041"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,29 +155,49 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -174,6 +209,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FFBF0041"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -288,103 +383,129 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>46038</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>46041</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>46047</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>46049</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>46051</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
